--- a/my-personal-backups/docs/work_files/train/工作文档/前端实习生考核.xlsx
+++ b/my-personal-backups/docs/work_files/train/工作文档/前端实习生考核.xlsx
@@ -1,115 +1,245 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zagger\Desktop\工作文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A238E8E8-89EA-4EFE-9210-0D27099D19E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="4875" windowWidth="22440" windowHeight="13980" xr2:uid="{87E2306B-6D9C-46C0-A0CB-549B23F7A315}"/>
+    <workbookView windowWidth="20360" windowHeight="7820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>考核分类：
+做题50%，课堂表现50%，系数</t>
+  </si>
+  <si>
+    <t>冯颖</t>
+  </si>
+  <si>
+    <t>罗凯</t>
+  </si>
+  <si>
+    <t>叶勇刚</t>
+  </si>
+  <si>
+    <t>戴琪冉</t>
+  </si>
   <si>
     <t>js1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>js2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dom1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dom2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dom3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冯颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗凯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶勇刚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴琪冉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考核分类：
-做题50%，课堂表现50%，系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未做</t>
   </si>
   <si>
     <t>vue2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未到</t>
   </si>
   <si>
     <t>vue3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.15"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +252,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -131,15 +447,260 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,27 +711,80 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -219,7 +833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -252,26 +866,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -304,23 +901,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,140 +1042,144 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F14F0F7-AD7A-42DA-B827-C8F0588E128A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.8"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+    <row r="1" ht="15" customHeight="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+    <row r="2" ht="14.25" customHeight="1" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+    <row r="3" ht="14.25" customHeight="1" spans="1:15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+    <row r="4" ht="14.25" customHeight="1" spans="1:15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
+    <row r="5" ht="14.25" customHeight="1" spans="1:15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+    <row r="6" spans="10:16">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
       </c>
       <c r="B8">
         <v>65</v>
@@ -606,7 +1190,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <f>(B8+C8)*D8/2</f>
         <v>82.5</v>
       </c>
@@ -619,40 +1203,40 @@
       <c r="H8">
         <v>0.9</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <f>(F8+G8)*H8/2</f>
         <v>60.75</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>80</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>80</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>0.8</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="9">
         <f>(J8+K8)*L8/2</f>
         <v>64</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="5">
         <v>70</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="5">
         <v>80</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="5">
         <v>0.6</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="4">
         <f>(N8+O8)*P8/2</f>
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>80</v>
@@ -663,7 +1247,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <f t="shared" ref="E9:E15" si="0">(B9+C9)*D9/2</f>
         <v>90</v>
       </c>
@@ -676,40 +1260,40 @@
       <c r="H9">
         <v>0.9</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <f t="shared" ref="I9:I15" si="1">(F9+G9)*H9/2</f>
         <v>69.75</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>70</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <v>80</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>0.8</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="9">
         <f t="shared" ref="M9:M15" si="2">(J9+K9)*L9/2</f>
         <v>60</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="5">
         <v>70</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="5">
         <v>70</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="5">
         <v>0.5</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="4">
         <f t="shared" ref="Q9:Q15" si="3">(N9+O9)*P9/2</f>
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -720,7 +1304,7 @@
       <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>74.25</v>
       </c>
@@ -733,40 +1317,40 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>65</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <v>80</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>0.8</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="9">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="5">
         <v>65</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="5">
         <v>60</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="5">
         <v>0.5</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="4">
         <f t="shared" si="3"/>
         <v>31.25</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>90</v>
@@ -777,7 +1361,7 @@
       <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>66.5</v>
       </c>
@@ -790,40 +1374,40 @@
       <c r="H11">
         <v>0.9</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <f t="shared" si="1"/>
         <v>76.5</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>85</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <v>80</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>0.8</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="9">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="5">
         <v>0</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="5">
         <v>70</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="5">
         <v>0.6</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="4">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>50</v>
@@ -834,7 +1418,7 @@
       <c r="D12">
         <v>0.8</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -847,38 +1431,38 @@
       <c r="H12">
         <v>0.9</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
         <v>67.5</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>90</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>80</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>0.9</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="9">
         <f t="shared" si="2"/>
         <v>76.5</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="5">
         <v>30</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="5">
         <v>70</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="5">
         <v>0.7</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="4">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -891,7 +1475,7 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
@@ -904,40 +1488,40 @@
       <c r="H13">
         <v>1</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>75</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>90</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>0.8</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="9">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13">
+      <c r="N13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="5">
         <v>65</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="5">
         <v>0.7</v>
       </c>
-      <c r="Q13" s="3" t="e">
+      <c r="Q13" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>85</v>
@@ -948,7 +1532,7 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
@@ -961,40 +1545,40 @@
       <c r="H14">
         <v>1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L14">
+      <c r="J14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="5">
         <v>1</v>
       </c>
-      <c r="M14" s="3" t="e">
+      <c r="M14" s="9" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O14" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14">
+      <c r="P14" s="5">
         <v>0.6</v>
       </c>
-      <c r="Q14" s="3" t="e">
+      <c r="Q14" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>80</v>
@@ -1005,7 +1589,7 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -1018,33 +1602,33 @@
       <c r="H15">
         <v>0.9</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <f t="shared" si="1"/>
         <v>78.75</v>
       </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15">
+      <c r="J15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="5">
         <v>0.8</v>
       </c>
-      <c r="M15" s="3" t="e">
+      <c r="M15" s="9" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O15" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15">
+      <c r="P15" s="5">
         <v>0.6</v>
       </c>
-      <c r="Q15" s="3" t="e">
+      <c r="Q15" s="4" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
@@ -1057,8 +1641,8 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="A1:O5"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>